--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A35737-5DC6-4E16-AF22-F7339D9DA464}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3177F-7BD0-47F7-BE35-4D9907DBAA02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Wildfire</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Root Rot Onset</t>
+  </si>
+  <si>
+    <t>GrowthRecoveryHalfLifeFollowingMortality</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -276,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -300,6 +309,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,17 +644,18 @@
     <col min="3" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="12" width="15" customWidth="1"/>
-    <col min="13" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
+    <col min="14" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -664,53 +677,56 @@
       <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -718,16 +734,16 @@
         <v>32</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -736,40 +752,43 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>0.8</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.2</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
         <v>0.8</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>0.2</v>
       </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
       <c r="T2" s="1">
-        <f t="shared" ref="T2:T11" si="0">SUM(H2:K2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U11" si="1">SUM(L2:O2)</f>
+        <f t="shared" ref="U2:U11" si="0">SUM(I2:L2)</f>
         <v>1</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V11" si="2">SUM(P2:S2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V2:V11" si="1">SUM(M2:P2)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <f t="shared" ref="W2:W11" si="2">SUM(Q2:T2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -778,16 +797,16 @@
         <v>26</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -796,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -808,28 +827,31 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A7" si="3">A3+1</f>
         <v>3</v>
@@ -838,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -850,16 +872,16 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -868,28 +890,31 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -901,7 +926,7 @@
         <v>0.9</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -910,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -937,19 +962,22 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -965,7 +993,7 @@
         <v>0.87</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -974,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1001,19 +1029,22 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1022,19 +1053,19 @@
         <v>17</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1043,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>0</v>
@@ -1058,22 +1089,25 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1084,16 +1118,16 @@
         <v>0.9</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1102,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -1117,22 +1151,25 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1149,10 +1186,10 @@
         <v>42</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1188,19 +1225,22 @@
         <v>0</v>
       </c>
       <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1220,7 +1260,7 @@
         <v>1.04</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1256,19 +1296,22 @@
         <v>0</v>
       </c>
       <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1276,10 +1319,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1315,19 +1358,22 @@
         <v>0</v>
       </c>
       <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1335,58 +1381,61 @@
         <v>31</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H12" s="1">
+        <v>-999</v>
+      </c>
+      <c r="I12" s="1">
         <v>0.85</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
       <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0.15</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
       <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.1</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>0.9</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
       <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>0.25</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
       <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
         <v>0.75</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
       <c r="T12" s="1">
-        <f t="shared" ref="T12" si="4">SUM(H12:K12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ref="U12" si="5">SUM(L12:O12)</f>
+        <f t="shared" ref="U12" si="4">SUM(I12:L12)</f>
         <v>1</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12" si="6">SUM(P12:S12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V12" si="5">SUM(M12:P12)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12" si="6">SUM(Q12:T12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1394,58 +1443,61 @@
         <v>36</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H13" s="1">
+        <v>-999</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.85</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.15</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.1</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.8</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>0.1</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
       <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>0.25</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0.65</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>0.1</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
       <c r="T13" s="1">
-        <f t="shared" ref="T13" si="7">SUM(H13:K13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13" si="8">SUM(L13:O13)</f>
+        <f t="shared" ref="U13" si="7">SUM(I13:L13)</f>
         <v>1</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13" si="9">SUM(P13:S13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V13" si="8">SUM(M13:P13)</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13" si="9">SUM(Q13:T13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>A13+1</f>
         <v>13</v>
@@ -1454,10 +1506,10 @@
         <v>34</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1493,19 +1545,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <f>SUM(H14:K14)</f>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f>SUM(L14:O14)</f>
+        <f>SUM(I14:L14)</f>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>SUM(P14:S14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(M14:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <f>SUM(Q14:T14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A23" si="10">A14+1</f>
         <v>14</v>
@@ -1514,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1553,19 +1608,22 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <f>SUM(H15:K15)</f>
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <f>SUM(L15:O15)</f>
+        <f>SUM(I15:L15)</f>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>SUM(P15:S15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(M15:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <f>SUM(Q15:T15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -1580,10 +1638,10 @@
         <v>47</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1616,22 +1674,25 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" ref="T16" si="11">SUM(H16:K16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" ref="U16" si="12">SUM(L16:O16)</f>
+        <f t="shared" ref="U16" si="11">SUM(I16:L16)</f>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" ref="V16" si="13">SUM(P16:S16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V16" si="12">SUM(M16:P16)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" ref="W16" si="13">SUM(Q16:T16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -1643,10 +1704,10 @@
         <v>45</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -1679,22 +1740,25 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
-        <f>SUM(H17:K17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
-        <f>SUM(L17:O17)</f>
+        <f>SUM(I17:L17)</f>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>SUM(P17:S17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(M17:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <f>SUM(Q17:T17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="10"/>
         <v>17</v>
@@ -1703,10 +1767,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -1715,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -1727,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -1739,22 +1803,25 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <f>SUM(H18:K18)</f>
         <v>1</v>
       </c>
       <c r="U18" s="1">
-        <f>SUM(L18:O18)</f>
+        <f>SUM(I18:L18)</f>
         <v>1</v>
       </c>
       <c r="V18" s="1">
-        <f>SUM(P18:S18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(M18:P18)</f>
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <f>SUM(Q18:T18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="10"/>
         <v>18</v>
@@ -1763,10 +1830,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="1">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1799,22 +1866,25 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f>SUM(H19:K19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
-        <f>SUM(L19:O19)</f>
+        <f>SUM(I19:L19)</f>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f>SUM(P19:S19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(M19:P19)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <f>SUM(Q19:T19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="10"/>
         <v>19</v>
@@ -1823,10 +1893,10 @@
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>0.9</v>
+        <v>-999</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1859,22 +1929,25 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" ref="T20" si="14">SUM(H20:K20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20" si="15">SUM(L20:O20)</f>
+        <f t="shared" ref="U20" si="14">SUM(I20:L20)</f>
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20" si="16">SUM(P20:S20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V20" si="15">SUM(M20:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20" si="16">SUM(Q20:T20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -1886,7 +1959,7 @@
         <v>1.05</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
@@ -1922,19 +1995,22 @@
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" ref="T21" si="17">SUM(H21:K21)</f>
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" ref="U21" si="18">SUM(L21:O21)</f>
+        <f t="shared" ref="U21" si="17">SUM(I21:L21)</f>
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21" si="19">SUM(P21:S21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V21" si="18">SUM(M21:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" ref="W21" si="19">SUM(Q21:T21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -1946,7 +2022,7 @@
         <v>1.05</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1982,19 +2058,22 @@
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" ref="T22" si="20">SUM(H22:K22)</f>
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" ref="U22" si="21">SUM(L22:O22)</f>
+        <f t="shared" ref="U22" si="20">SUM(I22:L22)</f>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" ref="V22" si="22">SUM(P22:S22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V22" si="21">SUM(M22:P22)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" ref="W22" si="22">SUM(Q22:T22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="10"/>
         <v>22</v>
@@ -2006,10 +2085,10 @@
         <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>-999</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>-999</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -2045,22 +2124,25 @@
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" ref="T23" si="23">SUM(H23:K23)</f>
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" ref="U23" si="24">SUM(L23:O23)</f>
+        <f t="shared" ref="U23" si="23">SUM(I23:L23)</f>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" ref="V23" si="25">SUM(P23:S23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V23" si="24">SUM(M23:P23)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23" si="25">SUM(Q23:T23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2077,9 +2159,9 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2094,9 +2176,9 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H33" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2111,9 +2193,9 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H34" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2128,9 +2210,9 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H35" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2145,9 +2227,9 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H36" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2162,9 +2244,9 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H37" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2179,9 +2261,9 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H38" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2196,9 +2278,9 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H39" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2213,9 +2295,9 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H40" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2230,9 +2312,9 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H41" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2247,9 +2329,9 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H42" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2264,12 +2346,13 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="T2:V22" formulaRange="1"/>
+    <ignoredError sqref="U2:W22" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3177F-7BD0-47F7-BE35-4D9907DBAA02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E7A39-5EBA-4BEA-9286-3769663AC015}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="825" yWindow="-135" windowWidth="28110" windowHeight="16470" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Wildfire</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Defoliators</t>
   </si>
   <si>
-    <t>Wind</t>
-  </si>
-  <si>
     <t>Snags_ToSnags</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>QA3</t>
   </si>
   <si>
-    <t>Brushing</t>
-  </si>
-  <si>
     <t>Fertilization Aerial</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Prescribed Burn</t>
   </si>
   <si>
-    <t>Snow And Ice</t>
-  </si>
-  <si>
     <t>Thinning</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Slashpile Burn</t>
   </si>
   <si>
-    <t>Tilling</t>
-  </si>
-  <si>
     <t>Harvest Custom</t>
   </si>
   <si>
@@ -144,55 +132,73 @@
     <t>Harvest and Slashpile Burn</t>
   </si>
   <si>
-    <t>SBC</t>
-  </si>
-  <si>
-    <t>STC</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>HELI</t>
-  </si>
-  <si>
-    <t>GRANU</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>!=LAYOT</t>
-  </si>
-  <si>
-    <t>Control Dwarf Mistletoe</t>
-  </si>
-  <si>
     <t>Species_CD</t>
   </si>
   <si>
     <t>Pli</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>IDW</t>
+  </si>
+  <si>
+    <t>Fdi</t>
+  </si>
+  <si>
+    <t>GrowthFactor_Source</t>
+  </si>
+  <si>
+    <t>Dwarf Mistletoe Control</t>
+  </si>
+  <si>
+    <t>GrowthRecovery_HL</t>
+  </si>
+  <si>
+    <t>GrowthRecovery_HL_Source</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>MortalityOccurs</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>IDW Btk Spray</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
     <t>Dwarf Mistletoe Onset</t>
   </si>
   <si>
-    <t>Root Rot Onset</t>
-  </si>
-  <si>
-    <t>GrowthRecoveryHalfLifeFollowingMortality</t>
+    <t>Knockdown</t>
+  </si>
+  <si>
+    <t>Mulching</t>
+  </si>
+  <si>
+    <t>Ripping</t>
+  </si>
+  <si>
+    <t>Disc Trenching</t>
+  </si>
+  <si>
+    <t>Salvage Logging</t>
   </si>
 </sst>
 </file>
@@ -232,12 +238,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,7 +268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB42424"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +308,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -320,6 +326,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB42424"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -628,23 +639,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
@@ -655,75 +668,75 @@
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -731,14 +744,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-999</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1">
         <v>0</v>
       </c>
@@ -776,15 +790,15 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U11" si="0">SUM(I2:L2)</f>
+        <f t="shared" ref="U2:U4" si="0">SUM(I2:L2)</f>
         <v>1</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V11" si="1">SUM(M2:P2)</f>
+        <f t="shared" ref="V2:V4" si="1">SUM(M2:P2)</f>
         <v>1</v>
       </c>
       <c r="W2" s="1">
-        <f t="shared" ref="W2:W11" si="2">SUM(Q2:T2)</f>
+        <f t="shared" ref="W2:W4" si="2">SUM(Q2:T2)</f>
         <v>1</v>
       </c>
     </row>
@@ -794,14 +808,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-999</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1">
         <v>0</v>
       </c>
@@ -853,18 +870,21 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A7" si="3">A3+1</f>
+        <f t="shared" ref="A4:A28" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1">
         <v>0</v>
       </c>
@@ -920,62 +940,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -983,66 +971,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1-0.13</f>
-        <v>0.87</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1050,152 +1004,117 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>0.9</v>
       </c>
-      <c r="H8" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U8" si="4">SUM(I8:L8)</f>
         <v>1</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V8" si="5">SUM(M8:P8)</f>
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W8" si="6">SUM(Q8:T8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-999</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1204,64 +1123,57 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="U9" si="7">SUM(I9:L9)</f>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="V9" si="8">SUM(M9:P9)</f>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="W9" si="9">SUM(Q9:T9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-999</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>0</v>
       </c>
@@ -1299,31 +1211,33 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(I10:L10)</f>
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M10:P10)</f>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="2"/>
+        <f>SUM(Q10:T10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-999</v>
-      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1">
         <v>0</v>
       </c>
@@ -1361,156 +1275,97 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(I11:L11)</f>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(M11:P11)</f>
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="2"/>
+        <f>SUM(Q11:T11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" ref="U12" si="4">SUM(I12:L12)</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" ref="V12" si="5">SUM(M12:P12)</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" ref="W12" si="6">SUM(Q12:T12)</f>
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" ref="U13" si="7">SUM(I13:L13)</f>
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <f t="shared" ref="V13" si="8">SUM(M13:P13)</f>
-        <v>1</v>
-      </c>
-      <c r="W13" s="1">
-        <f t="shared" ref="W13" si="9">SUM(Q13:T13)</f>
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-999</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1">
         <v>0</v>
       </c>
@@ -1521,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1533,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -1545,359 +1400,201 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
         <f>SUM(I14:L14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
         <f>SUM(M14:P14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <f>SUM(Q14:T14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" ref="A15:A23" si="10">A14+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <f>SUM(I15:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <f>SUM(M15:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <f>SUM(Q15:T15)</f>
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" ref="U16" si="11">SUM(I16:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" ref="V16" si="12">SUM(M16:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16" si="13">SUM(Q16:T16)</f>
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <f>SUM(I17:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <f>SUM(M17:P17)</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <f>SUM(Q17:T17)</f>
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <f>SUM(I18:L18)</f>
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <f>SUM(M18:P18)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="1">
-        <f>SUM(Q18:T18)</f>
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <f>SUM(I19:L19)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <f>SUM(M19:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <f>SUM(Q19:T19)</f>
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H20" s="1">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -1905,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1917,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -1929,38 +1626,44 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20" si="14">SUM(I20:L20)</f>
-        <v>0</v>
+        <f t="shared" ref="U20" si="10">SUM(I20:L20)</f>
+        <v>1</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20" si="15">SUM(M20:P20)</f>
-        <v>0</v>
+        <f t="shared" ref="V20" si="11">SUM(M20:P20)</f>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="16">SUM(Q20:T20)</f>
+        <f t="shared" ref="W20" si="12">SUM(Q20:T20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-999</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1">
         <v>0</v>
       </c>
@@ -1971,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -1983,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -1995,35 +1698,38 @@
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" ref="U21" si="17">SUM(I21:L21)</f>
-        <v>0</v>
+        <f t="shared" ref="U21:U24" si="13">SUM(I21:L21)</f>
+        <v>1</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21" si="18">SUM(M21:P21)</f>
-        <v>0</v>
+        <f t="shared" ref="V21:V24" si="14">SUM(M21:P21)</f>
+        <v>1</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21" si="19">SUM(Q21:T21)</f>
-        <v>0</v>
+        <f t="shared" ref="W21:W24" si="15">SUM(Q21:T21)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-999</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1">
         <v>0</v>
       </c>
@@ -2034,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -2046,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -2058,91 +1764,407 @@
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" ref="U22" si="20">SUM(I22:L22)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" ref="V22" si="21">SUM(M22:P22)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" ref="W22" si="22">SUM(Q22:T22)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <f>SUM(I25:L25)</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <f>SUM(M25:P25)</f>
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <f>SUM(Q25:T25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-999</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-999</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" ref="U23" si="23">SUM(I23:L23)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" ref="V23" si="24">SUM(M23:P23)</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" ref="W23" si="25">SUM(Q23:T23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <f>SUM(I27:L27)</f>
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <f>SUM(M27:P27)</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <f>SUM(Q27:T27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <f>SUM(I29:L29)</f>
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <f>SUM(M29:P29)</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <f>SUM(Q29:T29)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2161,198 +2183,11 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="U2:W22" formulaRange="1"/>
+    <ignoredError sqref="U2:W4 U8:W11 U14:W14" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E7A39-5EBA-4BEA-9286-3769663AC015}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031A9B5-465C-4E2D-B6E4-AE3B4C9C0E15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-135" windowWidth="28110" windowHeight="16470" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Wildfire</t>
   </si>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>Salvage Logging</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Rust Onset</t>
+  </si>
+  <si>
+    <t>FelledStemMerch_Burned</t>
+  </si>
+  <si>
+    <t>FelledStemNonMerch_Burned</t>
+  </si>
+  <si>
+    <t>FelledBranch_Burned</t>
+  </si>
+  <si>
+    <t>FelledBark_Burned</t>
+  </si>
+  <si>
+    <t>FelledSnagStem_Burned</t>
+  </si>
+  <si>
+    <t>FelledSnagBranch_Burned</t>
   </si>
 </sst>
 </file>
@@ -229,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +302,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -291,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,6 +348,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,13 +672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="A27:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,9 +699,15 @@
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -729,17 +768,35 @@
       <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -757,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -769,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -781,28 +838,46 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U4" si="0">SUM(I2:L2)</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V4" si="1">SUM(M2:P2)</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="W2" s="1">
-        <f t="shared" ref="W2:W4" si="2">SUM(Q2:T2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AA2" s="1">
+        <f t="shared" ref="AA2:AA4" si="0">SUM(I2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <f t="shared" ref="AB2:AB4" si="1">SUM(M2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <f t="shared" ref="AC2:AC4" si="2">SUM(Q2:T2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -856,19 +931,37 @@
         <v>0</v>
       </c>
       <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V3" s="1">
+      <c r="AB3" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W3" s="1">
+      <c r="AC3" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A28" si="3">A3+1</f>
         <v>3</v>
@@ -922,19 +1015,37 @@
         <v>0</v>
       </c>
       <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V4" s="1">
+      <c r="AB4" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W4" s="1">
+      <c r="AC4" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -964,8 +1075,14 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -997,8 +1114,14 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1030,8 +1153,14 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1083,19 +1212,37 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" ref="U8" si="4">SUM(I8:L8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" ref="V8" si="5">SUM(M8:P8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" ref="W8" si="6">SUM(Q8:T8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" ref="AA8" si="4">SUM(I8:L8)</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" ref="AB8" si="5">SUM(M8:P8)</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" ref="AC8" si="6">SUM(Q8:T8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1147,19 +1294,37 @@
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" ref="U9" si="7">SUM(I9:L9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" ref="V9" si="8">SUM(M9:P9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" ref="W9" si="9">SUM(Q9:T9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" ref="AA9" si="7">SUM(I9:L9)</f>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" ref="AB9" si="8">SUM(M9:P9)</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" ref="AC9" si="9">SUM(Q9:T9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -1211,19 +1376,37 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <f>SUM(I10:L10)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="AB10" s="1">
         <f>SUM(M10:P10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="1">
+      <c r="AC10" s="1">
         <f>SUM(Q10:T10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -1275,19 +1458,37 @@
         <v>0</v>
       </c>
       <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
         <f>SUM(I11:L11)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="AB11" s="1">
         <f>SUM(M11:P11)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="1">
+      <c r="AC11" s="1">
         <f>SUM(Q11:T11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1317,8 +1518,14 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1348,8 +1555,14 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1363,7 +1576,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
@@ -1403,19 +1616,37 @@
         <v>1</v>
       </c>
       <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
         <f>SUM(I14:L14)</f>
         <v>1</v>
       </c>
-      <c r="V14" s="1">
+      <c r="AB14" s="1">
         <f>SUM(M14:P14)</f>
         <v>1</v>
       </c>
-      <c r="W14" s="1">
+      <c r="AC14" s="1">
         <f>SUM(Q14:T14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1445,8 +1676,14 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1476,8 +1713,14 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1509,8 +1752,14 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1542,8 +1791,14 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1576,8 +1831,14 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1632,19 +1893,37 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20" si="10">SUM(I20:L20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20" si="11">SUM(M20:P20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="12">SUM(Q20:T20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" ref="AA20" si="10">SUM(I20:L20)</f>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" ref="AB20" si="11">SUM(M20:P20)</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" ref="AC20" si="12">SUM(Q20:T20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1701,19 +1980,37 @@
         <v>1</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" ref="U21:U24" si="13">SUM(I21:L21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" ref="V21:V24" si="14">SUM(M21:P21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" ref="W21:W24" si="15">SUM(Q21:T21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" ref="AA21:AA24" si="13">SUM(I21:L21)</f>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" ref="AB21:AB24" si="14">SUM(M21:P21)</f>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" ref="AC21:AC24" si="15">SUM(Q21:T21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1767,19 +2064,37 @@
         <v>1</v>
       </c>
       <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V22" s="1">
+      <c r="AB22" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W22" s="1">
+      <c r="AC22" s="1">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -1833,19 +2148,37 @@
         <v>1</v>
       </c>
       <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V23" s="1">
+      <c r="AB23" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W23" s="1">
+      <c r="AC23" s="1">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -1899,19 +2232,37 @@
         <v>1</v>
       </c>
       <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V24" s="1">
+      <c r="AB24" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W24" s="1">
+      <c r="AC24" s="1">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -1965,19 +2316,37 @@
         <v>1</v>
       </c>
       <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
         <f>SUM(I25:L25)</f>
         <v>1</v>
       </c>
-      <c r="V25" s="1">
+      <c r="AB25" s="1">
         <f>SUM(M25:P25)</f>
         <v>1</v>
       </c>
-      <c r="W25" s="1">
+      <c r="AC25" s="1">
         <f>SUM(Q25:T25)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2000,11 +2369,29 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2052,19 +2439,37 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <f>SUM(I27:L27)</f>
         <v>1</v>
       </c>
-      <c r="V27" s="1">
+      <c r="AB27" s="1">
         <f>SUM(M27:P27)</f>
         <v>1</v>
       </c>
-      <c r="W27" s="1">
+      <c r="AC27" s="1">
         <f>SUM(Q27:T27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2093,11 +2498,29 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2115,11 +2538,11 @@
         <v>0.85</v>
       </c>
       <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
         <v>0.15</v>
       </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
@@ -2127,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="1">
         <v>0</v>
@@ -2139,28 +2562,126 @@
         <v>0.8</v>
       </c>
       <c r="R29" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
       </c>
       <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <f>SUM(I29:L29)</f>
         <v>1</v>
       </c>
-      <c r="V29" s="1">
+      <c r="AB29" s="1">
         <f>SUM(M29:P29)</f>
         <v>1</v>
       </c>
-      <c r="W29" s="1">
+      <c r="AC29" s="1">
         <f>SUM(Q29:T29)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <f>SUM(I30:L30)</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <f>SUM(M30:P30)</f>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <f>SUM(Q30:T30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2182,12 +2703,18 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="U2:W4 U8:W11 U14:W14" formulaRange="1"/>
+    <ignoredError sqref="AA2:AC4 AA8:AC11 AA14:AC14" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031A9B5-465C-4E2D-B6E4-AE3B4C9C0E15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB770C-B822-4C90-BCA5-93FB248C75DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>Wildfire</t>
   </si>
@@ -45,30 +45,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Biomass_Merch_Removed</t>
-  </si>
-  <si>
-    <t>Biomass_Merch_Burned</t>
-  </si>
-  <si>
-    <t>Biomass_Merch_LeftOnSite</t>
-  </si>
-  <si>
-    <t>Biomass_Merch_ToSnag</t>
-  </si>
-  <si>
-    <t>Biomass_NonMerch_Removed</t>
-  </si>
-  <si>
-    <t>Biomass_NonMerch_Burned</t>
-  </si>
-  <si>
-    <t>Biomass_NonMerch_LeftOnSite</t>
-  </si>
-  <si>
-    <t>Biomass_NonMerch_ToSnag</t>
-  </si>
-  <si>
     <t>Snags_Removed</t>
   </si>
   <si>
@@ -123,9 +99,6 @@
     <t>Slashpile Burn</t>
   </si>
   <si>
-    <t>Harvest Custom</t>
-  </si>
-  <si>
     <t>GrowthFactor</t>
   </si>
   <si>
@@ -223,6 +196,66 @@
   </si>
   <si>
     <t>FelledSnagBranch_Burned</t>
+  </si>
+  <si>
+    <t>Root rot</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Harvest Custom 1</t>
+  </si>
+  <si>
+    <t>Harvest Custom 2</t>
+  </si>
+  <si>
+    <t>Harvest Custom 3</t>
+  </si>
+  <si>
+    <t>Harvest Custom 4</t>
+  </si>
+  <si>
+    <t>Harvest Custom 5</t>
+  </si>
+  <si>
+    <t>Harvest Custom 6</t>
+  </si>
+  <si>
+    <t>Harvest Custom 7</t>
+  </si>
+  <si>
+    <t>Harvest Custom 8</t>
+  </si>
+  <si>
+    <t>Harvest Custom 9</t>
+  </si>
+  <si>
+    <t>Harvest Custom 10</t>
+  </si>
+  <si>
+    <t>BiomassMerch_Removed</t>
+  </si>
+  <si>
+    <t>BiomassMerch_Burned</t>
+  </si>
+  <si>
+    <t>BiomassMerch_LeftOnSite</t>
+  </si>
+  <si>
+    <t>BiomassMerch_ToSnag</t>
+  </si>
+  <si>
+    <t>BiomassNonMerch_Removed</t>
+  </si>
+  <si>
+    <t>BiomassNonMerch_Burned</t>
+  </si>
+  <si>
+    <t>BiomassNonMerch_LeftOnSite</t>
+  </si>
+  <si>
+    <t>BiomassNonMerch_ToSnag</t>
   </si>
 </sst>
 </file>
@@ -672,42 +705,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="A27:Q29"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" customWidth="1"/>
+    <col min="14" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -715,96 +748,96 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -877,16 +910,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -961,16 +994,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A28" si="3">A3+1</f>
+        <f t="shared" ref="A4:A41" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1045,16 +1078,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1082,16 +1115,16 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1121,16 +1154,16 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1160,29 +1193,29 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1200,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1242,16 +1275,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1324,16 +1357,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1406,98 +1439,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <f>SUM(I11:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <f>SUM(M11:P11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <f>SUM(Q11:T11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1525,137 +1513,137 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>SUM(I13:L13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <f>SUM(M13:P13)</f>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <f>SUM(Q13:T13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>25</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>SUM(I14:L14)</f>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1">
-        <f>SUM(M14:P14)</f>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1">
-        <f>SUM(Q14:T14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1683,18 +1671,20 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1720,16 +1710,16 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1759,20 +1749,21 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1798,63 +1789,110 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" ref="AA19" si="10">SUM(I19:L19)</f>
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" ref="AB19" si="11">SUM(M19:P19)</f>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" ref="AC19" si="12">SUM(Q19:T19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
         <v>0</v>
@@ -1863,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -1875,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -1887,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -1911,31 +1949,28 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" ref="AA20" si="10">SUM(I20:L20)</f>
+        <f t="shared" ref="AA20:AA23" si="13">SUM(I20:L20)</f>
         <v>1</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" ref="AB20" si="11">SUM(M20:P20)</f>
+        <f t="shared" ref="AB20:AB23" si="14">SUM(M20:P20)</f>
         <v>1</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" ref="AC20" si="12">SUM(Q20:T20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AC20:AC23" si="15">SUM(Q20:T20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1998,28 +2033,28 @@
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" ref="AA21:AA24" si="13">SUM(I21:L21)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" ref="AB21:AB24" si="14">SUM(M21:P21)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" ref="AC21:AC24" si="15">SUM(Q21:T21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2094,16 +2129,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2178,22 +2213,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>0</v>
@@ -2250,71 +2285,41 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="13"/>
+        <f>SUM(I24:L24)</f>
         <v>1</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="14"/>
+        <f>SUM(M24:P24)</f>
         <v>1</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <f>SUM(Q24:T24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
       <c r="U25" s="1">
         <v>0</v>
       </c>
@@ -2333,42 +2338,57 @@
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AA25" s="1">
-        <f>SUM(I25:L25)</f>
-        <v>1</v>
-      </c>
-      <c r="AB25" s="1">
-        <f>SUM(M25:P25)</f>
-        <v>1</v>
-      </c>
-      <c r="AC25" s="1">
-        <f>SUM(Q25:T25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
       <c r="U26" s="1">
         <v>0</v>
       </c>
@@ -2387,57 +2407,48 @@
       <c r="Z26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA26" s="1">
+        <f>SUM(I26:L26)</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1">
+        <f>SUM(M26:P26)</f>
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <f>SUM(Q26:T26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="1">
         <v>0</v>
       </c>
@@ -2456,48 +2467,61 @@
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="1">
-        <f>SUM(I27:L27)</f>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="1">
-        <f>SUM(M27:P27)</f>
-        <v>1</v>
-      </c>
-      <c r="AC27" s="1">
-        <f>SUM(Q27:T27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
+      <c r="I28" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
       <c r="U28" s="1">
         <v>0</v>
       </c>
@@ -2516,35 +2540,44 @@
       <c r="Z28" s="1">
         <v>0</v>
       </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA28" s="1">
+        <f>SUM(I28:L28)</f>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1">
+        <f>SUM(M28:P28)</f>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>SUM(Q28:T28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>34</v>
+      </c>
       <c r="I29" s="1">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -2553,22 +2586,22 @@
         <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -2601,120 +2634,978 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" ref="AA30:AA31" si="16">SUM(I30:L30)</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" ref="AB30:AB31" si="17">SUM(M30:P30)</f>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" ref="AC30:AC31" si="18">SUM(Q30:T30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>1</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <f>SUM(I30:L30)</f>
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1">
-        <f>SUM(M30:P30)</f>
-        <v>1</v>
-      </c>
-      <c r="AC30" s="1">
-        <f>SUM(Q30:T30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" ref="AA32:AA41" si="19">SUM(I32:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" ref="AB32:AB41" si="20">SUM(M32:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <f t="shared" ref="AC32:AC41" si="21">SUM(Q32:T32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AA2:AC4 AA8:AC11 AA14:AC14" formulaRange="1"/>
+    <ignoredError sqref="AA2:AC4 AA8:AC9 AA13:AC13 AA10:AC10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB770C-B822-4C90-BCA5-93FB248C75DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D8898-9E1E-41D9-8704-328C1F3A478C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Wildfire</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>BiomassNonMerch_ToSnag</t>
+  </si>
+  <si>
+    <t>IDL</t>
   </si>
 </sst>
 </file>
@@ -708,10 +711,10 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +999,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A41" si="3">A3+1</f>
+        <f t="shared" ref="A4:A42" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3545,7 +3548,83 @@
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <f>SUM(I42:L42)</f>
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1">
+        <f>SUM(M42:P42)</f>
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1">
+        <f>SUM(Q42:T42)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D8898-9E1E-41D9-8704-328C1F3A478C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298BE99-EBB2-4C71-BE2A-720259C86EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -711,10 +711,10 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,22 +883,22 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA4" si="0">SUM(I2:L2)</f>
@@ -1212,13 +1212,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1236,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298BE99-EBB2-4C71-BE2A-720259C86EB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EF545-3D46-4AEE-B468-92D600B483D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Wildfire</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>IDL</t>
+  </si>
+  <si>
+    <t>Harvest Custom</t>
   </si>
 </sst>
 </file>
@@ -711,10 +714,10 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43:AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3627,7 +3630,78 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <f t="shared" ref="AA43" si="22">SUM(I43:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" ref="AB43" si="23">SUM(M43:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" ref="AC43" si="24">SUM(Q43:T43)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EF545-3D46-4AEE-B468-92D600B483D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE60D95-AF30-40FE-85F3-DC9551666ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>Wildfire</t>
   </si>
@@ -102,9 +104,6 @@
     <t>GrowthFactor</t>
   </si>
   <si>
-    <t>Harvest and Slashpile Burn</t>
-  </si>
-  <si>
     <t>Species_CD</t>
   </si>
   <si>
@@ -171,9 +170,6 @@
     <t>Disc Trenching</t>
   </si>
   <si>
-    <t>Salvage Logging</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -262,6 +258,12 @@
   </si>
   <si>
     <t>Harvest Custom</t>
+  </si>
+  <si>
+    <t>Harvest Salvage</t>
+  </si>
+  <si>
+    <t>Regen Failure</t>
   </si>
 </sst>
 </file>
@@ -711,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43:AC43"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,46 +756,46 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="I1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>4</v>
@@ -808,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="U1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="AA1" s="6" t="s">
         <v>10</v>
@@ -843,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -886,22 +888,22 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA4" si="0">SUM(I2:L2)</f>
@@ -925,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1002,14 +1004,14 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A42" si="3">A3+1</f>
+        <f t="shared" ref="A4:A43" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1093,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1130,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1169,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1208,44 +1210,44 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0.1</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>0.9</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.2</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1287,20 +1289,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
@@ -1324,10 +1326,10 @@
         <v>0.8</v>
       </c>
       <c r="R9" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1351,15 +1353,15 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" ref="AA9" si="7">SUM(I9:L9)</f>
+        <f>SUM(I9:L9)</f>
         <v>1</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" ref="AB9" si="8">SUM(M9:P9)</f>
+        <f>SUM(M9:P9)</f>
         <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" ref="AC9" si="9">SUM(Q9:T9)</f>
+        <f>SUM(Q9:T9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1372,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1454,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1491,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1528,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1612,7 +1614,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1649,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1683,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -1722,10 +1724,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1761,13 +1763,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1801,13 +1803,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1868,15 +1870,15 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" ref="AA19" si="10">SUM(I19:L19)</f>
+        <f t="shared" ref="AA19" si="7">SUM(I19:L19)</f>
         <v>1</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19" si="11">SUM(M19:P19)</f>
+        <f t="shared" ref="AB19" si="8">SUM(M19:P19)</f>
         <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19" si="12">SUM(Q19:T19)</f>
+        <f t="shared" ref="AC19" si="9">SUM(Q19:T19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1886,13 +1888,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1955,15 +1957,15 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" ref="AA20:AA23" si="13">SUM(I20:L20)</f>
+        <f t="shared" ref="AA20:AA23" si="10">SUM(I20:L20)</f>
         <v>1</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" ref="AB20:AB23" si="14">SUM(M20:P20)</f>
+        <f t="shared" ref="AB20:AB23" si="11">SUM(M20:P20)</f>
         <v>1</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" ref="AC20:AC23" si="15">SUM(Q20:T20)</f>
+        <f t="shared" ref="AC20:AC23" si="12">SUM(Q20:T20)</f>
         <v>1</v>
       </c>
     </row>
@@ -1973,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2039,15 +2041,15 @@
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -2057,10 +2059,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2123,15 +2125,15 @@
         <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -2141,10 +2143,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2207,15 +2209,15 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -2225,13 +2227,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
@@ -2309,10 +2311,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2354,10 +2356,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2432,10 +2434,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -2485,24 +2487,23 @@
       <c r="B28" t="s">
         <v>46</v>
       </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>33</v>
+      </c>
       <c r="I28" s="1">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -2511,22 +2512,22 @@
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
@@ -2565,14 +2566,15 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1">
         <v>0</v>
       </c>
@@ -2628,15 +2630,15 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <f>SUM(I29:L29)</f>
+        <f t="shared" ref="AA29:AA30" si="13">SUM(I29:L29)</f>
         <v>1</v>
       </c>
       <c r="AB29" s="1">
-        <f>SUM(M29:P29)</f>
+        <f t="shared" ref="AB29:AB30" si="14">SUM(M29:P29)</f>
         <v>1</v>
       </c>
       <c r="AC29" s="1">
-        <f>SUM(Q29:T29)</f>
+        <f t="shared" ref="AC29:AC30" si="15">SUM(Q29:T29)</f>
         <v>1</v>
       </c>
     </row>
@@ -2646,15 +2648,11 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+        <v>33</v>
+      </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
@@ -2710,15 +2708,15 @@
         <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" ref="AA30:AA31" si="16">SUM(I30:L30)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ref="AB30:AB31" si="17">SUM(M30:P30)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" ref="AC30:AC31" si="18">SUM(Q30:T30)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -2730,9 +2728,6 @@
       <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
@@ -2743,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -2755,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
@@ -2767,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <v>0</v>
@@ -2788,16 +2783,16 @@
         <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" ref="AA31:AA40" si="16">SUM(I31:L31)</f>
+        <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" ref="AB31:AB40" si="17">SUM(M31:P31)</f>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" ref="AC31:AC40" si="18">SUM(Q31:T31)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
@@ -2806,7 +2801,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2863,15 +2858,15 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" ref="AA32:AA41" si="19">SUM(I32:L32)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" ref="AB32:AB41" si="20">SUM(M32:P32)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" ref="AC32:AC41" si="21">SUM(Q32:T32)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2881,7 +2876,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2938,15 +2933,15 @@
         <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +2951,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -3013,15 +3008,15 @@
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3026,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -3088,15 +3083,15 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3106,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -3163,15 +3158,15 @@
         <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3176,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3238,15 +3233,15 @@
         <v>0</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3256,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -3313,15 +3308,15 @@
         <v>0</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC38" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3331,7 +3326,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3388,15 +3383,15 @@
         <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC39" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3406,7 +3401,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -3463,15 +3458,15 @@
         <v>0</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3481,8 +3476,12 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1">
         <v>0</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -3505,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -3517,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -3538,16 +3537,16 @@
         <v>0</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>SUM(I41:L41)</f>
+        <v>1</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>SUM(M41:P41)</f>
+        <v>1</v>
       </c>
       <c r="AC41" s="1">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>SUM(Q41:T41)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -3556,12 +3555,8 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+        <v>74</v>
+      </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
@@ -3572,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -3584,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
@@ -3596,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="1">
         <v>0</v>
@@ -3617,20 +3612,21 @@
         <v>0</v>
       </c>
       <c r="AA42" s="1">
-        <f>SUM(I42:L42)</f>
-        <v>1</v>
+        <f t="shared" ref="AA42" si="19">SUM(I42:L42)</f>
+        <v>0</v>
       </c>
       <c r="AB42" s="1">
-        <f>SUM(M42:P42)</f>
-        <v>1</v>
+        <f t="shared" ref="AB42" si="20">SUM(M42:P42)</f>
+        <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <f>SUM(Q42:T42)</f>
-        <v>1</v>
+        <f t="shared" ref="AC42" si="21">SUM(Q42:T42)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -3750,15 +3746,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AA2:AC4 AA8:AC9 AA13:AC13 AA10:AC10" formulaRange="1"/>
+    <ignoredError sqref="AA2:AC4 AA8:AC8 AA13:AC13 AA10:AC10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE60D95-AF30-40FE-85F3-DC9551666ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F942E-9438-4E58-AD4E-8AF7305385B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -716,10 +716,10 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A43" si="3">A3+1</f>
+        <f t="shared" ref="A4:A45" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1217,13 +1217,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F942E-9438-4E58-AD4E-8AF7305385B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB56AF01-C558-495D-9B44-AA4FB8CBA90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -716,10 +716,10 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A45" si="3">A3+1</f>
+        <f t="shared" ref="A4:A43" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB56AF01-C558-495D-9B44-AA4FB8CBA90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A67D3-2339-42B2-8FD3-BCAC7A733FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -716,10 +716,10 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A43" si="3">A3+1</f>
+        <f t="shared" ref="A4:A44" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3701,6 +3701,27 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A67D3-2339-42B2-8FD3-BCAC7A733FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC40D45-7837-40D8-98D7-E7AA37DE2404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -716,10 +716,10 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" customWidth="1"/>
     <col min="9" max="10" width="14.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.44140625" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A44" si="3">A3+1</f>
+        <f t="shared" ref="A4:A43" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.1</v>
+        <v>0.88</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1299,13 +1299,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC40D45-7837-40D8-98D7-E7AA37DE2404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9742695F-B7BA-433B-996B-C9CB909486A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>Wildfire</t>
   </si>
@@ -176,24 +176,6 @@
     <t>Rust Onset</t>
   </si>
   <si>
-    <t>FelledStemMerch_Burned</t>
-  </si>
-  <si>
-    <t>FelledStemNonMerch_Burned</t>
-  </si>
-  <si>
-    <t>FelledBranch_Burned</t>
-  </si>
-  <si>
-    <t>FelledBark_Burned</t>
-  </si>
-  <si>
-    <t>FelledSnagStem_Burned</t>
-  </si>
-  <si>
-    <t>FelledSnagBranch_Burned</t>
-  </si>
-  <si>
     <t>Root rot</t>
   </si>
   <si>
@@ -264,6 +246,39 @@
   </si>
   <si>
     <t>Regen Failure</t>
+  </si>
+  <si>
+    <t>BiomassMerch_Piled</t>
+  </si>
+  <si>
+    <t>BiomassNonMerch_Piled</t>
+  </si>
+  <si>
+    <t>Snags_Piled</t>
+  </si>
+  <si>
+    <t>PiledStemMerch_Burned</t>
+  </si>
+  <si>
+    <t>PiledStemNonMerch_Burned</t>
+  </si>
+  <si>
+    <t>PiledBranch_Burned</t>
+  </si>
+  <si>
+    <t>PiledBark_Burned</t>
+  </si>
+  <si>
+    <t>PiledSnagStem_Burned</t>
+  </si>
+  <si>
+    <t>PiledSnagBranch_Burned</t>
+  </si>
+  <si>
+    <t>PAS Deactivation</t>
+  </si>
+  <si>
+    <t>GC Switch</t>
   </si>
 </sst>
 </file>
@@ -713,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891CA5AB-1370-48B7-A6BE-040C7169BF63}">
-  <dimension ref="A1:AC59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,27 +743,29 @@
     <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
+    <col min="5" max="8" width="7.77734375" customWidth="1"/>
     <col min="9" max="10" width="14.5546875" customWidth="1"/>
     <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" customWidth="1"/>
     <col min="21" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="16.88671875" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" customWidth="1"/>
+    <col min="28" max="28" width="14.21875" customWidth="1"/>
+    <col min="29" max="29" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -774,70 +791,79 @@
         <v>31</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="X1" s="10" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -888,37 +914,46 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="AA2" s="1">
-        <f t="shared" ref="AA2:AA4" si="0">SUM(I2:L2)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB4" si="1">SUM(M2:P2)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC4" si="2">SUM(Q2:T2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>SUM(I2:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>SUM(N2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2:AF4" si="0">SUM(S2:W2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -951,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -963,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -990,21 +1025,30 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>SUM(I3:M3)</f>
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>SUM(N3:R3)</f>
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A43" si="3">A3+1</f>
+        <f t="shared" ref="A4:A45" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1029,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
         <v>0</v>
@@ -1047,13 +1091,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <v>0</v>
@@ -1074,21 +1118,30 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>SUM(I4:M4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <f>SUM(N4:R4)</f>
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB4" s="1">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1122,10 +1175,13 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1161,10 +1217,13 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1200,10 +1259,13 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1217,16 +1279,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.02</v>
+        <f>(1-0.6)*(1-I8)</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <f>0.6*(1-I8)</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1235,28 +1299,30 @@
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>0.88</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.12</v>
-      </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <f>(1-0.6)*(1-S8)</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <f>0.6*(1-S8)</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1271,25 +1337,34 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" ref="AA8" si="4">SUM(I8:L8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" ref="AB8" si="5">SUM(M8:P8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" ref="AC8" si="6">SUM(Q8:T8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>SUM(I8:M8)</f>
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>SUM(N8:R8)</f>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" ref="AF8" si="2">SUM(S8:W8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
@@ -1299,16 +1374,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.02</v>
+        <f>(1-0.6)*(1-I9)</f>
+        <v>6.0000000000000012E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <f>0.6*(1-I9)</f>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1317,28 +1394,30 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0.12</v>
+        <v>0.85</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0</v>
+        <f>(1-0.6)*(1-S9)</f>
+        <v>6.0000000000000012E-2</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <f>0.6*(1-S9)</f>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -1353,21 +1432,30 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <f>SUM(I9:L9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f>SUM(M9:P9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <f>SUM(Q9:T9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>SUM(I9:M9)</f>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>SUM(N9:R9)</f>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>SUM(S9:W9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1435,21 +1523,30 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <f>SUM(I10:L10)</f>
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <f>SUM(M10:P10)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="1">
-        <f>SUM(Q10:T10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>SUM(I10:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>SUM(N10:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <f>SUM(S10:W10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1483,10 +1580,13 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1520,10 +1620,13 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1548,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1560,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>0</v>
@@ -1581,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -1593,21 +1696,30 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <f>SUM(I13:L13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <f>SUM(M13:P13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <f>SUM(Q13:T13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <f>SUM(I13:M13)</f>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>SUM(N13:R13)</f>
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <f>SUM(S13:W13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1641,10 +1753,13 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1678,10 +1793,13 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1717,10 +1835,13 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1756,10 +1877,13 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1796,10 +1920,13 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1834,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -1846,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
@@ -1870,21 +1997,30 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" ref="AA19" si="7">SUM(I19:L19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19" si="8">SUM(M19:P19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19" si="9">SUM(Q19:T19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" ref="AD19:AD24" si="3">SUM(I19:M19)</f>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" ref="AE19:AE24" si="4">SUM(N19:R19)</f>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" ref="AF19" si="5">SUM(S19:W19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1912,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1924,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1">
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -1945,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="1">
         <v>0</v>
@@ -1957,21 +2093,30 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" ref="AA20:AA23" si="10">SUM(I20:L20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" ref="AB20:AB23" si="11">SUM(M20:P20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" ref="AC20:AC23" si="12">SUM(Q20:T20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" ref="AF20:AF23" si="6">SUM(S20:W20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1996,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2008,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>0</v>
@@ -2029,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="1">
         <v>0</v>
@@ -2041,21 +2186,30 @@
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2080,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -2092,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
@@ -2113,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
         <v>0</v>
@@ -2125,21 +2279,30 @@
         <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2164,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -2176,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>0</v>
@@ -2197,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
@@ -2209,21 +2372,30 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2248,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -2260,19 +2432,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="1">
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>0</v>
@@ -2281,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -2293,21 +2465,30 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <f>SUM(I24:L24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <f>SUM(M24:P24)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <f>SUM(Q24:T24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>SUM(S24:W24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2319,24 +2500,24 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
+      <c r="U25" s="1"/>
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
+      <c r="W25" s="1"/>
       <c r="X25" s="1">
         <v>0</v>
       </c>
@@ -2346,13 +2527,22 @@
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2368,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -2380,28 +2570,28 @@
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q26" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
@@ -2416,21 +2606,30 @@
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <f>SUM(I26:L26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <f>SUM(M26:P26)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <f>SUM(Q26:T26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <f>SUM(I26:M26)</f>
+        <v>1</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>SUM(N26:R26)</f>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="1">
+        <f>SUM(S26:W26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2448,24 +2647,24 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1">
-        <v>0</v>
-      </c>
+      <c r="U27" s="1"/>
       <c r="V27" s="1">
         <v>0</v>
       </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1">
         <v>0</v>
       </c>
@@ -2475,13 +2674,22 @@
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2503,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -2515,19 +2723,19 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
         <v>0</v>
@@ -2536,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -2548,25 +2756,34 @@
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <f>SUM(I28:L28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <f>SUM(M28:P28)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <f>SUM(Q28:T28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <f t="shared" ref="AD28:AD43" si="7">SUM(I28:M28)</f>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" ref="AE28:AE43" si="8">SUM(N28:R28)</f>
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1">
+        <f>SUM(S28:W28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>33</v>
@@ -2585,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2597,19 +2814,19 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1">
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
         <v>0</v>
@@ -2618,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -2630,25 +2847,34 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" ref="AA29:AA30" si="13">SUM(I29:L29)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" ref="AB29:AB30" si="14">SUM(M29:P29)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" ref="AC29:AC30" si="15">SUM(Q29:T29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="1">
+        <f t="shared" ref="AF29:AF30" si="9">SUM(S29:W29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>33</v>
@@ -2663,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2675,19 +2901,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
         <v>0</v>
@@ -2696,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -2708,701 +2934,791 @@
         <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <f t="shared" ref="AF31:AF40" si="10">SUM(S31:W31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>0</v>
-      </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="1">
-        <f t="shared" ref="AA31:AA40" si="16">SUM(I31:L31)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1">
-        <f t="shared" ref="AB31:AB40" si="17">SUM(M31:P31)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1">
-        <f t="shared" ref="AC31:AC40" si="18">SUM(Q31:T31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>0</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
@@ -3458,25 +3774,34 @@
         <v>0</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3492,10 +3817,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -3504,19 +3829,19 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
         <v>0</v>
@@ -3525,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="1">
         <v>0</v>
@@ -3537,25 +3862,34 @@
         <v>0</v>
       </c>
       <c r="AA41" s="1">
-        <f>SUM(I41:L41)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="1">
-        <f>SUM(M41:P41)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <f>SUM(Q41:T41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <f>SUM(S41:W41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -3612,25 +3946,34 @@
         <v>0</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" ref="AA42" si="19">SUM(I42:L42)</f>
         <v>0</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" ref="AB42" si="20">SUM(M42:P42)</f>
         <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <f t="shared" ref="AC42" si="21">SUM(Q42:T42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <f t="shared" ref="AF42" si="11">SUM(S42:W42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -3687,52 +4030,199 @@
         <v>0</v>
       </c>
       <c r="AA43" s="1">
-        <f t="shared" ref="AA43" si="22">SUM(I43:L43)</f>
         <v>0</v>
       </c>
       <c r="AB43" s="1">
-        <f t="shared" ref="AB43" si="23">SUM(M43:P43)</f>
         <v>0</v>
       </c>
       <c r="AC43" s="1">
-        <f t="shared" ref="AC43" si="24">SUM(Q43:T43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <f t="shared" ref="AF43" si="12">SUM(S43:W43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <f t="shared" ref="AD44" si="13">SUM(I44:M44)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" ref="AE44" si="14">SUM(N44:R44)</f>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <f t="shared" ref="AF44" si="15">SUM(S44:W44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -3772,7 +4262,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AA2:AC4 AA8:AC8 AA13:AC13 AA10:AC10" formulaRange="1"/>
+    <ignoredError sqref="AD2:AF4 AD8:AF8 AD13:AF13 AD10:AF10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9742695F-B7BA-433B-996B-C9CB909486A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEB5109-3CC1-4FF6-92CD-9B4B85F95010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>Wildfire</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>GC Switch</t>
+  </si>
+  <si>
+    <t>Sawtooth Commercial Thinning</t>
   </si>
 </sst>
 </file>
@@ -731,10 +734,10 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H28" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46:AC46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f>(1-0.6)*(1-I8)</f>
+        <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="L8" s="1">
-        <f>0.6*(1-I8)</f>
+        <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="M8" s="1">
@@ -1317,11 +1320,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f>(1-0.6)*(1-S8)</f>
+        <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="V8" s="1">
-        <f>0.6*(1-S8)</f>
+        <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="W8" s="1">
@@ -1374,18 +1377,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f>(1-0.6)*(1-I9)</f>
-        <v>6.0000000000000012E-2</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L9" s="1">
-        <f>0.6*(1-I9)</f>
-        <v>9.0000000000000011E-2</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1406,18 +1409,18 @@
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f>(1-0.6)*(1-S9)</f>
-        <v>6.0000000000000012E-2</v>
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="V9" s="1">
-        <f>0.6*(1-S9)</f>
-        <v>9.0000000000000011E-2</v>
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -4123,15 +4126,15 @@
         <v>0</v>
       </c>
       <c r="AD44" s="1">
-        <f t="shared" ref="AD44" si="13">SUM(I44:M44)</f>
+        <f t="shared" ref="AD44:AD46" si="13">SUM(I44:M44)</f>
         <v>0</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" ref="AE44" si="14">SUM(N44:R44)</f>
+        <f t="shared" ref="AE44:AE46" si="14">SUM(N44:R44)</f>
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <f t="shared" ref="AF44" si="15">SUM(S44:W44)</f>
+        <f t="shared" ref="AF44:AF46" si="15">SUM(S44:W44)</f>
         <v>0</v>
       </c>
     </row>
@@ -4207,17 +4210,104 @@
         <v>0</v>
       </c>
       <c r="AD45" s="1">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE45" s="1">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF45" s="1">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f>0.4*0.12</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="V46" s="1">
+        <f>0.6*0.12</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEB5109-3CC1-4FF6-92CD-9B4B85F95010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BEA07-4DCE-4C0C-8DA7-BBC02AF99101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>Wildfire</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Sawtooth Commercial Thinning</t>
+  </si>
+  <si>
+    <t>Sawtooth IDW</t>
   </si>
 </sst>
 </file>
@@ -734,229 +737,226 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H28" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46:AC46"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="8" width="7.77734375" customWidth="1"/>
-    <col min="9" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="9.21875" customWidth="1"/>
-    <col min="28" max="28" width="14.21875" customWidth="1"/>
-    <col min="29" max="29" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="X2" s="1">
+        <f>SUM(C2:G2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>SUM(H2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <f t="shared" ref="Z2:Z4" si="0">SUM(M2:Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="AD2" s="1">
-        <f>SUM(I2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>SUM(N2:R2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF4" si="0">SUM(S2:W2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -964,92 +964,92 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f>SUM(C3:G3)</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>SUM(H3:L3)</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <f>SUM(I3:M3)</f>
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1">
-        <f>SUM(N3:R3)</f>
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A45" si="1">A3+1</f>
         <v>3</v>
@@ -1057,92 +1057,92 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f>SUM(C4:G4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>SUM(H4:L4)</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1">
         <v>20</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <f>SUM(I4:M4)</f>
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1">
-        <f>SUM(N4:R4)</f>
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1150,9 +1150,8 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1175,14 +1174,15 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1190,12 +1190,9 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1217,14 +1214,17 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="AB6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4</v>
+      </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1232,12 +1232,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1259,14 +1256,17 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="AB7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1274,94 +1274,94 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="C8" s="1">
         <v>0.88</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="F8" s="1">
         <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
         <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="P8" s="1">
         <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
       <c r="W8" s="1">
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <f>SUM(C8:G8)</f>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <f>SUM(H8:L8)</f>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <f>SUM(I8:M8)</f>
-        <v>1</v>
-      </c>
-      <c r="AE8" s="1">
-        <f>SUM(N8:R8)</f>
-        <v>1</v>
-      </c>
-      <c r="AF8" s="1">
-        <f t="shared" ref="AF8" si="2">SUM(S8:W8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Z8" si="2">SUM(M8:Q8)</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1369,94 +1369,94 @@
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="C9" s="1">
         <v>0.88</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L9" s="1">
+      <c r="F9" s="1">
         <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
         <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="P9" s="1">
         <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
       <c r="W9" s="1">
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <f>SUM(C9:G9)</f>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <f>SUM(H9:L9)</f>
+        <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1">
-        <f>SUM(I9:M9)</f>
-        <v>1</v>
-      </c>
-      <c r="AE9" s="1">
-        <f>SUM(N9:R9)</f>
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1">
-        <f>SUM(S9:W9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+        <f>SUM(M9:Q9)</f>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1464,90 +1464,90 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <f>SUM(C10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>SUM(H10:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>SUM(M10:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <f>SUM(I10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <f>SUM(N10:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <f>SUM(S10:W10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1555,9 +1555,8 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1580,14 +1579,15 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AB11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1595,9 +1595,8 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1620,14 +1619,15 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="AB12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1635,92 +1635,92 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f>SUM(C13:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>SUM(H13:L13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>SUM(M13:Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1">
         <v>25</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="1">
-        <f>SUM(I13:M13)</f>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="1">
-        <f>SUM(N13:R13)</f>
-        <v>1</v>
-      </c>
-      <c r="AF13" s="1">
-        <f>SUM(S13:W13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1728,9 +1728,8 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1753,14 +1752,15 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1768,9 +1768,8 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1793,14 +1792,15 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AB15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1808,12 +1808,9 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1835,14 +1832,17 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AB16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>10</v>
+      </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1850,12 +1850,9 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1877,14 +1874,17 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>10</v>
+      </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1892,12 +1892,8 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1920,14 +1916,18 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+      <c r="AA18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1935,93 +1935,93 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" ref="X19:X24" si="3">SUM(C19:G19)</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" ref="Y19:Y24" si="4">SUM(H19:L19)</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19" si="5">SUM(M19:Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="1">
-        <f t="shared" ref="AD19:AD24" si="3">SUM(I19:M19)</f>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="1">
-        <f t="shared" ref="AE19:AE24" si="4">SUM(N19:R19)</f>
-        <v>1</v>
-      </c>
-      <c r="AF19" s="1">
-        <f t="shared" ref="AF19" si="5">SUM(S19:W19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2029,95 +2029,95 @@
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" ref="Z20:Z23" si="6">SUM(M20:Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1">
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AF20" s="1">
-        <f t="shared" ref="AF20:AF23" si="6">SUM(S20:W20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2125,92 +2125,92 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1">
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AF21" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2218,92 +2218,92 @@
       <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AF22" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2311,92 +2311,92 @@
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1">
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AF23" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2404,92 +2404,92 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>SUM(M24:Q24)</f>
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AF24" s="1">
-        <f>SUM(S24:W24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2497,53 +2497,53 @@
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AB25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2551,86 +2551,86 @@
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <f>SUM(C26:G26)</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>SUM(H26:L26)</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>SUM(M26:Q26)</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1">
-        <f>SUM(I26:M26)</f>
-        <v>1</v>
-      </c>
-      <c r="AE26" s="1">
-        <f>SUM(N26:R26)</f>
-        <v>1</v>
-      </c>
-      <c r="AF26" s="1">
-        <f>SUM(S26:W26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2638,50 +2638,50 @@
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
       <c r="V27" s="1">
         <v>0</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AB27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="AC27" s="1">
         <v>0</v>
@@ -2690,7 +2690,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2698,89 +2698,89 @@
       <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" ref="X28:X43" si="7">SUM(C28:G28)</f>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" ref="Y28:Y43" si="8">SUM(H28:L28)</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>SUM(M28:Q28)</f>
+        <v>1</v>
+      </c>
+      <c r="AA28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1">
-        <f t="shared" ref="AD28:AD43" si="7">SUM(I28:M28)</f>
-        <v>1</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" ref="AE28:AE43" si="8">SUM(N28:R28)</f>
-        <v>1</v>
-      </c>
-      <c r="AF28" s="1">
-        <f>SUM(S28:W28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2788,90 +2788,90 @@
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" ref="Z29:Z30" si="9">SUM(M29:Q29)</f>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>1</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="1">
-        <v>1</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF29" s="1">
-        <f t="shared" ref="AF29:AF30" si="9">SUM(S29:W29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2879,86 +2879,86 @@
       <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1">
-        <v>1</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF30" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2966,6 +2966,24 @@
       <c r="B31" t="s">
         <v>49</v>
       </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
@@ -3012,37 +3030,19 @@
         <v>0</v>
       </c>
       <c r="X31" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y31" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1">
-        <f t="shared" ref="AF31:AF40" si="10">SUM(S31:W31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Z31:Z40" si="10">SUM(M31:Q31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3050,6 +3050,24 @@
       <c r="B32" t="s">
         <v>50</v>
       </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
@@ -3096,37 +3114,19 @@
         <v>0</v>
       </c>
       <c r="X32" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y32" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3134,6 +3134,24 @@
       <c r="B33" t="s">
         <v>51</v>
       </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
@@ -3180,37 +3198,19 @@
         <v>0</v>
       </c>
       <c r="X33" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y33" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3218,6 +3218,24 @@
       <c r="B34" t="s">
         <v>52</v>
       </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
@@ -3264,37 +3282,19 @@
         <v>0</v>
       </c>
       <c r="X34" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y34" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3302,6 +3302,24 @@
       <c r="B35" t="s">
         <v>53</v>
       </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -3348,37 +3366,19 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y35" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -3386,6 +3386,24 @@
       <c r="B36" t="s">
         <v>54</v>
       </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
@@ -3432,37 +3450,19 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y36" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3470,6 +3470,24 @@
       <c r="B37" t="s">
         <v>55</v>
       </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
       <c r="I37" s="1">
         <v>0</v>
       </c>
@@ -3516,37 +3534,19 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y37" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3554,6 +3554,24 @@
       <c r="B38" t="s">
         <v>56</v>
       </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
       <c r="I38" s="1">
         <v>0</v>
       </c>
@@ -3600,37 +3618,19 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3638,6 +3638,24 @@
       <c r="B39" t="s">
         <v>57</v>
       </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
@@ -3684,37 +3702,19 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3722,6 +3722,24 @@
       <c r="B40" t="s">
         <v>58</v>
       </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
@@ -3768,37 +3786,19 @@
         <v>0</v>
       </c>
       <c r="X40" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3806,10 +3806,24 @@
       <c r="B41" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
@@ -3820,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -3835,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -3853,40 +3867,26 @@
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Z41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE41" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF41" s="1">
-        <f>SUM(S41:W41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+        <f>SUM(M41:Q41)</f>
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3894,6 +3894,24 @@
       <c r="B42" t="s">
         <v>68</v>
       </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
@@ -3940,37 +3958,19 @@
         <v>0</v>
       </c>
       <c r="X42" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1">
-        <f t="shared" ref="AF42" si="11">SUM(S42:W42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Z42" si="11">SUM(M42:Q42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -3978,6 +3978,24 @@
       <c r="B43" t="s">
         <v>70</v>
       </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
@@ -4024,37 +4042,19 @@
         <v>0</v>
       </c>
       <c r="X43" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="1">
-        <f t="shared" ref="AF43" si="12">SUM(S43:W43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Z43" si="12">SUM(M43:Q43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4062,6 +4062,24 @@
       <c r="B44" t="s">
         <v>80</v>
       </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
@@ -4108,37 +4126,19 @@
         <v>0</v>
       </c>
       <c r="X44" s="1">
+        <f t="shared" ref="X44:X46" si="13">SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="Y44" s="1">
+        <f t="shared" ref="Y44:Y46" si="14">SUM(H44:L44)</f>
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="1">
-        <f t="shared" ref="AD44:AD46" si="13">SUM(I44:M44)</f>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="1">
-        <f t="shared" ref="AE44:AE46" si="14">SUM(N44:R44)</f>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="1">
-        <f t="shared" ref="AF44:AF46" si="15">SUM(S44:W44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Z44:Z46" si="15">SUM(M44:Q44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -4146,6 +4146,24 @@
       <c r="B45" t="s">
         <v>81</v>
       </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
@@ -4192,167 +4210,229 @@
         <v>0</v>
       </c>
       <c r="X45" s="1">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y45" s="1">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="1">
+      <c r="C46" s="1">
         <v>0.88</v>
       </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L46" s="1">
+      <c r="F46" s="1">
         <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
       </c>
       <c r="O46" s="1">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="R46" s="1">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="T46" s="1">
-        <v>0</v>
-      </c>
-      <c r="U46" s="1">
         <f>0.4*0.12</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="V46" s="1">
+      <c r="P46" s="1">
         <f>0.6*0.12</f>
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
       <c r="W46" s="1">
         <v>0</v>
       </c>
       <c r="X46" s="1">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="Z46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AE46" s="1">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AF46" s="1">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" ref="X47" si="16">SUM(C47:G47)</f>
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" ref="Y47" si="17">SUM(H47:L47)</f>
+        <v>1</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" ref="Z47" si="18">SUM(M47:Q47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AD2:AF4 AD8:AF8 AD13:AF13 AD10:AF10" formulaRange="1"/>
+    <ignoredError sqref="X2:Z4 X8:Z8 X13:Z13 X10:Z10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131BEA07-4DCE-4C0C-8DA7-BBC02AF99101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF2563-84C0-41CB-97E5-7867D4122A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -737,38 +737,38 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="9" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -866,7 +866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A45" si="1">A3+1</f>
         <v>3</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1182,7 +1182,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1224,7 +1224,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1266,7 +1266,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1361,7 +1361,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1456,7 +1456,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1547,7 +1547,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1587,7 +1587,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1627,7 +1627,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1760,7 +1760,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1800,7 +1800,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1842,7 +1842,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1884,7 +1884,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1927,7 +1927,7 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2021,7 +2021,7 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2489,7 +2489,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2543,7 +2543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -2630,7 +2630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -2690,7 +2690,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -2780,7 +2780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2871,7 +2871,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2958,7 +2958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3886,7 +3886,7 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4392,40 +4392,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF2563-84C0-41CB-97E5-7867D4122A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF6F3B-A629-4A04-BE75-23F44CE7A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>IBS</t>
   </si>
   <si>
-    <t>IDW Btk Spray</t>
-  </si>
-  <si>
     <t>Maybe</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Sawtooth IDW</t>
+  </si>
+  <si>
+    <t>Aerial Spray</t>
   </si>
 </sst>
 </file>
@@ -737,10 +737,10 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,34 +776,34 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>4</v>
@@ -815,28 +815,28 @@
         <v>6</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>10</v>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1">
         <v>0.88</v>
@@ -1806,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1848,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1890,7 +1890,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2483,7 +2483,7 @@
         <v>27</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC24" s="1"/>
       <c r="AE24" s="1"/>
@@ -2495,7 +2495,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2549,7 +2549,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
@@ -2636,7 +2636,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2696,7 +2696,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>33</v>
@@ -2786,7 +2786,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1">
         <v>0.88</v>
@@ -4314,7 +4314,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DF6F3B-A629-4A04-BE75-23F44CE7A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F15DD9-FE62-44A7-8D8A-DD8590B6690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>Wildfire</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Aerial Spray</t>
+  </si>
+  <si>
+    <t>LUC</t>
   </si>
 </sst>
 </file>
@@ -737,10 +740,10 @@
   <dimension ref="A1:AF59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4388,12 +4391,103 @@
         <v>1</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" ref="Z47" si="18">SUM(M47:Q47)</f>
+        <f t="shared" ref="Z47:Z48" si="18">SUM(M47:Q47)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <f>0*0.12</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f>1*0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f>0*0.12</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f>1*0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <f>SUM(C48:G48)</f>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <f>SUM(H48:L48)</f>
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AEDDD4-1BF8-4125-8DFF-31720A60E89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026327B8-48BB-4947-87F2-CEB6750FC42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="22104" windowHeight="13152" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Wildfire</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>LitterSBurned</t>
+  </si>
+  <si>
+    <t>Fill Planting</t>
   </si>
 </sst>
 </file>
@@ -727,10 +730,10 @@
   <dimension ref="A1:BD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,11 +1064,11 @@
         <v>0</v>
       </c>
       <c r="AX2" s="1">
-        <f>SUM(C2:G2)</f>
+        <f t="shared" ref="AX2:AX32" si="0">SUM(C2:G2)</f>
         <v>1</v>
       </c>
       <c r="AY2" s="1">
-        <f>SUM(H2:L2)</f>
+        <f t="shared" ref="AY2:AY32" si="1">SUM(H2:L2)</f>
         <v>1</v>
       </c>
       <c r="AZ2" s="1">
@@ -1239,15 +1242,15 @@
         <v>0</v>
       </c>
       <c r="AX3" s="1">
-        <f>SUM(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY3" s="1">
-        <f>SUM(H3:L3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ3" s="1">
-        <f t="shared" ref="AZ3:AZ6" si="0">SUM(AF3:AJ3)</f>
+        <f t="shared" ref="AZ3:AZ6" si="2">SUM(AF3:AJ3)</f>
         <v>1</v>
       </c>
       <c r="BA3" s="1">
@@ -1269,7 +1272,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A32" si="1">A3+1</f>
+        <f t="shared" ref="A4:A34" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1417,37 +1420,37 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <f>SUM(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY4" s="1">
-        <f>SUM(H4:L4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BA4" s="1">
-        <f t="shared" ref="BA4:BA32" si="2">SUM(Q4:U4)</f>
+        <f t="shared" ref="BA4:BA32" si="4">SUM(Q4:U4)</f>
         <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <f t="shared" ref="BB4:BB32" si="3">SUM(V4:Z4)</f>
+        <f t="shared" ref="BB4:BB32" si="5">SUM(V4:Z4)</f>
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <f t="shared" ref="BC4:BC32" si="4">SUM(AF4:AJ4)</f>
+        <f t="shared" ref="BC4:BC32" si="6">SUM(AF4:AJ4)</f>
         <v>1</v>
       </c>
       <c r="BD4" s="1">
-        <f t="shared" ref="BD4:BD32" si="5">SUM(AK4:AP4)</f>
+        <f t="shared" ref="BD4:BD32" si="7">SUM(AK4:AP4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1595,37 +1598,37 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <f>SUM(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY5" s="1">
-        <f>SUM(H5:L5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BA5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1773,37 +1776,37 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <f>SUM(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY6" s="1">
-        <f>SUM(H6:L6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="BA6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1951,11 +1954,11 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY7" s="1">
-        <f>SUM(H7:L7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ7" s="1">
@@ -1963,25 +1966,25 @@
         <v>1</v>
       </c>
       <c r="BA7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2129,11 +2132,11 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY8" s="1">
-        <f>SUM(H8:L8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ8" s="1">
@@ -2141,25 +2144,25 @@
         <v>1</v>
       </c>
       <c r="BA8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2307,11 +2310,11 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY9" s="1">
-        <f>SUM(H9:L9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ9" s="1">
@@ -2319,25 +2322,25 @@
         <v>1</v>
       </c>
       <c r="BA9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2485,37 +2488,37 @@
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <f>SUM(H10:L10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" ref="AZ10:AZ12" si="6">SUM(AF10:AJ10)</f>
+        <f t="shared" ref="AZ10:AZ12" si="8">SUM(AF10:AJ10)</f>
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2663,37 +2666,37 @@
         <v>0</v>
       </c>
       <c r="AX11" s="1">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <f>SUM(H11:L11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ11" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BA11" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BD11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2841,37 +2844,37 @@
         <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <f>SUM(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <f>SUM(H12:L12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BA12" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BD12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -3023,37 +3026,37 @@
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <f>SUM(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY13" s="1">
-        <f>SUM(H13:L13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ13" s="1">
-        <f t="shared" ref="AZ13" si="7">SUM(AF13:AJ13)</f>
+        <f t="shared" ref="AZ13" si="9">SUM(AF13:AJ13)</f>
         <v>1</v>
       </c>
       <c r="BA13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3205,11 +3208,11 @@
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <f>SUM(C14:G14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY14" s="1">
-        <f>SUM(H14:L14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ14" s="1">
@@ -3217,25 +3220,25 @@
         <v>1</v>
       </c>
       <c r="BA14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3383,11 +3386,11 @@
         <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <f>SUM(C15:G15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <f>SUM(H15:L15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ15" s="1">
@@ -3395,25 +3398,25 @@
         <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -3561,11 +3564,11 @@
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <f>SUM(C16:G16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY16" s="1">
-        <f>SUM(H16:L16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ16" s="1">
@@ -3573,25 +3576,25 @@
         <v>1</v>
       </c>
       <c r="BA16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3739,11 +3742,11 @@
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <f>SUM(C17:G17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <f>SUM(H17:L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ17" s="1">
@@ -3751,25 +3754,25 @@
         <v>0</v>
       </c>
       <c r="BA17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3917,37 +3920,37 @@
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <f>SUM(C18:G18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY18" s="1">
-        <f>SUM(H18:L18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ18" s="1">
-        <f t="shared" ref="AZ18" si="8">SUM(AF18:AJ18)</f>
+        <f t="shared" ref="AZ18" si="10">SUM(AF18:AJ18)</f>
         <v>1</v>
       </c>
       <c r="BA18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -4083,37 +4086,37 @@
         <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <f>SUM(C19:G19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <f>SUM(H19:L19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ19" s="1">
-        <f t="shared" ref="AZ19:AZ23" si="9">SUM(AF19:AJ19)</f>
+        <f t="shared" ref="AZ19:AZ23" si="11">SUM(AF19:AJ19)</f>
         <v>0</v>
       </c>
       <c r="BA19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -4249,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="AX20" s="1">
-        <f>SUM(C20:G20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <f>SUM(H20:L20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -4415,37 +4418,37 @@
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <f>SUM(C21:G21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <f>SUM(H21:L21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -4581,37 +4584,37 @@
         <v>0</v>
       </c>
       <c r="AX22" s="1">
-        <f>SUM(C22:G22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <f>SUM(H22:L22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -4759,37 +4762,37 @@
         <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <f>SUM(C23:G23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <f>SUM(H23:L23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BA23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -4937,37 +4940,37 @@
         <v>0</v>
       </c>
       <c r="AX24" s="1">
-        <f>SUM(C24:G24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY24" s="1">
-        <f>SUM(H24:L24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ24" s="1">
-        <f t="shared" ref="AZ24" si="10">SUM(AF24:AJ24)</f>
+        <f t="shared" ref="AZ24" si="12">SUM(AF24:AJ24)</f>
         <v>1</v>
       </c>
       <c r="BA24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -5115,11 +5118,11 @@
         <v>0</v>
       </c>
       <c r="AX25" s="1">
-        <f>SUM(C25:G25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <f>SUM(H25:L25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ25" s="1">
@@ -5127,25 +5130,25 @@
         <v>0</v>
       </c>
       <c r="BA25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5275,37 +5278,37 @@
         <v>0</v>
       </c>
       <c r="AX26" s="1">
-        <f>SUM(C26:G26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <f>SUM(H26:L26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ26" s="1">
-        <f t="shared" ref="AZ26:AZ27" si="11">SUM(AF26:AJ26)</f>
+        <f t="shared" ref="AZ26:AZ27" si="13">SUM(AF26:AJ26)</f>
         <v>0</v>
       </c>
       <c r="BA26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -5435,37 +5438,37 @@
         <v>0</v>
       </c>
       <c r="AX27" s="1">
-        <f>SUM(C27:G27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY27" s="1">
-        <f>SUM(H27:L27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5619,11 +5622,11 @@
         <v>0</v>
       </c>
       <c r="AX28" s="1">
-        <f>SUM(C28:G28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY28" s="1">
-        <f>SUM(H28:L28)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ28" s="1">
@@ -5631,25 +5634,25 @@
         <v>1</v>
       </c>
       <c r="BA28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -5797,37 +5800,37 @@
         <v>0</v>
       </c>
       <c r="AX29" s="1">
-        <f>SUM(C29:G29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY29" s="1">
-        <f>SUM(H29:L29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ29" s="1">
-        <f t="shared" ref="AZ29" si="12">SUM(AF29:AJ29)</f>
+        <f t="shared" ref="AZ29" si="14">SUM(AF29:AJ29)</f>
         <v>0</v>
       </c>
       <c r="BA29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -5975,37 +5978,37 @@
         <v>0</v>
       </c>
       <c r="AX30" s="1">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY30" s="1">
-        <f>SUM(H30:L30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" ref="AZ30:AZ31" si="13">SUM(AF30:AJ30)</f>
+        <f t="shared" ref="AZ30:AZ31" si="15">SUM(AF30:AJ30)</f>
         <v>0</v>
       </c>
       <c r="BA30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -6159,37 +6162,37 @@
         <v>0</v>
       </c>
       <c r="AX31" s="1">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY31" s="1">
-        <f>SUM(H31:L31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BA31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BC31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -6337,65 +6340,297 @@
         <v>0</v>
       </c>
       <c r="AX32" s="1">
-        <f>SUM(C32:G32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AY32" s="1">
-        <f>SUM(H32:L32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AZ32" s="1">
-        <f t="shared" ref="AZ32" si="14">SUM(AF32:AJ32)</f>
+        <f t="shared" ref="AZ32:AZ33" si="16">SUM(AF32:AJ32)</f>
         <v>1</v>
       </c>
       <c r="BA32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC32" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BD32" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC32" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BD32" s="1">
-        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="1">
+        <f t="shared" ref="AX33" si="17">SUM(C33:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="AY33" s="1">
+        <f t="shared" ref="AY33" si="18">SUM(H33:L33)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BA33" s="1">
+        <f t="shared" ref="BA33" si="19">SUM(Q33:U33)</f>
+        <v>0</v>
+      </c>
+      <c r="BB33" s="1">
+        <f t="shared" ref="BB33" si="20">SUM(V33:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="BC33" s="1">
+        <f t="shared" ref="BC33" si="21">SUM(AF33:AJ33)</f>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="1">
+        <f t="shared" ref="BD33" si="22">SUM(AK33:AP33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_Disturbances.xlsx
+++ b/cbrunner/Parameters/Parameters_Disturbances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026327B8-48BB-4947-87F2-CEB6750FC42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA903AEB-232A-4CB9-A900-338987028DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="1248" windowWidth="22104" windowHeight="13152" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="18240" xr2:uid="{084E029F-F488-4F82-A5F5-E3A240A0CD52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Wildfire</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Fill Planting</t>
+  </si>
+  <si>
+    <t>Regen at 25% Growth</t>
   </si>
 </sst>
 </file>
@@ -730,20 +733,20 @@
   <dimension ref="A1:BD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="49" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="49" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" s="2" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -913,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1270,9 +1273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A34" si="3">A3+1</f>
+        <f t="shared" ref="A4:A33" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1448,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -1804,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -1982,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2160,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2338,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2516,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2694,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2872,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3054,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3236,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3414,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3592,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3770,7 +3773,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3948,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -4114,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -4280,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4446,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -4612,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -4790,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -4968,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -5146,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -5306,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -5466,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5650,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -5828,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -6006,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -6190,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -6368,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -6546,91 +6549,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="1">
+        <f t="shared" ref="AX34" si="23">SUM(C34:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="1">
+        <f t="shared" ref="AY34" si="24">SUM(H34:L34)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="1">
+        <f t="shared" ref="AZ34" si="25">SUM(AF34:AJ34)</f>
+        <v>0</v>
+      </c>
+      <c r="BA34" s="1">
+        <f t="shared" ref="BA34" si="26">SUM(Q34:U34)</f>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="1">
+        <f t="shared" ref="BB34" si="27">SUM(V34:Z34)</f>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="1">
+        <f t="shared" ref="BC34" si="28">SUM(AF34:AJ34)</f>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="1">
+        <f t="shared" ref="BD34" si="29">SUM(AK34:AP34)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
